--- a/treker/main/user_files/my_f/Report_my_f.xlsx
+++ b/treker/main/user_files/my_f/Report_my_f.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,11 +460,21 @@
           <t>runtime_errors</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>run_result</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25.10.2020-17:30:42</t>
+          <t>31.10.2020-14:47:49</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,10 +483,8 @@
 line(1) :  warning (W0611, unused-import, ) Unused import os </t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="C2" t="n">
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -489,6 +497,263 @@
 </t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>31.10.2020-14:48:31</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">line(8) :  warning (W0612, unused-variable, main) Unused variable 'i' 
+line(1) :  warning (W0611, unused-import, ) Unused import os </t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Your code has been rated at 5.00/10 </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[1, 1]
+</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>31.10.2020-15:03:03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">line(8) :  warning (W0612, unused-variable, main) Unused variable 'i' 
+line(1) :  warning (W0611, unused-import, ) Unused import os </t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Your code has been rated at 5.00/10 </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[1, 1]
+</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>31.10.2020-15:20:50</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">line(8) :  warning (W0612, unused-variable, main) Unused variable 'i' 
+line(1) :  warning (W0611, unused-import, ) Unused import os </t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Your code has been rated at 5.00/10 </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[1, 1]
+</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>31.10.2020-15:27:44</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">line(8) :  warning (W0612, unused-variable, main) Unused variable 'i' 
+line(1) :  warning (W0611, unused-import, ) Unused import os </t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Your code has been rated at 5.00/10 </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[1, 1]
+</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>31.10.2020-15:28:05</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">line(8) :  warning (W0612, unused-variable, main) Unused variable 'i' 
+line(1) :  warning (W0611, unused-import, ) Unused import os </t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Your code has been rated at 5.00/10 </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>31.10.2020-15:28:26</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">line(8) :  warning (W0612, unused-variable, main) Unused variable 'i' 
+line(1) :  warning (W0611, unused-import, ) Unused import os </t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Your code has been rated at 5.00/10 </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>31.10.2020-15:29:58</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">line(8) :  warning (W0612, unused-variable, main) Unused variable 'i' 
+line(1) :  warning (W0611, unused-import, ) Unused import os </t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Your code has been rated at 5.00/10 </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[1, 1]
+</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>31.10.2020-15:31:22</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">line(8) :  warning (W0612, unused-variable, main) Unused variable 'i' 
+line(1) :  warning (W0611, unused-import, ) Unused import os </t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Your code has been rated at 5.00/10 </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[1, 1]
+</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>31.10.2020-15:31:37</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">line(8) :  warning (W0612, unused-variable, main) Unused variable 'i' 
+line(1) :  warning (W0611, unused-import, ) Unused import os </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Your code has been rated at 5.00/10 </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[1, 1]
+</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
